--- a/biology/Histoire de la zoologie et de la botanique/James_Edward_Alexander/James_Edward_Alexander.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/James_Edward_Alexander/James_Edward_Alexander.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">James Edward Alexander, né à Powis (Clackmannanshire, Écosse) le 16 octobre 1803 et mort à Ryde (Île de Wight, Angleterre) le 2 avril 1885, est un militaire, explorateur et naturaliste britannique.
 </t>
@@ -511,7 +523,9 @@
           <t>La carrière militaire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait d'abord partie de l'armée de la Compagnie des Indes orientales à partir de 1820, est nommé lieutenant en 1823 et passe à l'armée britannique en 1825.
 En tant qu'aide-de-camp du contingent britannique en Perse, il est témoin des combats entre l'Empire Perse et la Russie en 1826. Il est présent dans les Balkans pendant la guerre russo-turque (1828-1829). Il est nommé capitaine en 1830. De 1832 à 1834, il assiste à la guerre des Miquelets au Portugal, et en 1835 il participe la guerre contre les Xhosa en Afrique australe en tant qu'aide-de-camp de Sir Benjamin d'Urban.
@@ -546,12 +560,14 @@
           <t>Explorateur et naturaliste</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il réunit des spécimens minéraux et botaniques, dont en particulier 300 plantes présentées à l'Université de Cambridge.
 En 1834, il est chargé par la Royal Geographic Society d'explorer et de décrire les régions de l'Afrique orientale situées à l'ouest de la baie Delagoa. Arrivé au Cap à bord de la "Thalia" au début de 1835, il est nommé aide-de-camp et secrétaire personnel du gouverneur, Sir Benjamin d'Urban. Retardé par les guerres frontalières, son objectif initial d'exploration est modifié et il entreprend le 10 septembre 1836 l'exploration de la partie occidentale du territoire situé au nord du fleuve Orange. Il est de retour le 21 septembre 1837. Dans la relation qu'il publie à Londres en 1838 figurent la carte de l'itinéraire suivi et la liste des plantes collectées.
 Diverses espèces animales et végétales ont été nommées alexandri en son honneur. Catophractes alexandri par exemple, une plante de la famille des bignoniacées, lui a été dédiée par le botaniste écossais David Don.
-Le fonds d'archives de James Edward Alexander est conservé au centre d'archives de Montréal de Bibliothèque et Archives nationales du Québec[1].
+Le fonds d'archives de James Edward Alexander est conservé au centre d'archives de Montréal de Bibliothèque et Archives nationales du Québec.
 </t>
         </is>
       </c>
@@ -580,7 +596,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Travels from India to England comprehending a visit to the Burman empire, and a journey through Persia, Asia Minor, European Turkey in the years 1825-26, Londres, Parbury, Allen, &amp; Co, 1827
 Travels through Russia and the Crimea, 1830
